--- a/io/input/tutorial_03_methionine_cycle.xlsx
+++ b/io/input/tutorial_03_methionine_cycle.xlsx
@@ -707,16 +707,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.64"/>
   </cols>
   <sheetData>
@@ -805,10 +805,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -816,7 +816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -824,14 +824,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -851,7 +853,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C12:C16 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1163,7 +1165,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C12:C16 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1726,7 +1728,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K35" activeCellId="1" sqref="C12:C16 K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2082,7 +2084,7 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C12:C16 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2983,7 +2985,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C12:C16 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3273,7 +3275,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="C12:C16 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3440,7 +3442,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C12:C16 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3603,8 +3605,8 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C12:C16 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3753,8 +3755,8 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C12:C16 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3916,7 +3918,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="1" sqref="C12:C16 F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4199,7 +4201,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C12:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4238,7 +4240,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4246,7 +4248,8 @@
         <v>0.1382</v>
       </c>
       <c r="C2" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B2</f>
+        <v>0.01382</v>
       </c>
       <c r="D2" s="18" t="n">
         <v>0.1325</v>
@@ -4261,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -4269,7 +4272,8 @@
         <v>0.8148</v>
       </c>
       <c r="C3" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B3</f>
+        <v>0.08148</v>
       </c>
       <c r="D3" s="18" t="n">
         <v>0.8687</v>
@@ -4284,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -4292,7 +4296,8 @@
         <v>0.2491</v>
       </c>
       <c r="C4" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B4</f>
+        <v>0.02491</v>
       </c>
       <c r="D4" s="18" t="n">
         <v>0.158</v>
@@ -4307,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -4315,7 +4320,8 @@
         <v>1.0164</v>
       </c>
       <c r="C5" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B5</f>
+        <v>0.10164</v>
       </c>
       <c r="D5" s="18" t="n">
         <v>1.0037</v>
@@ -4330,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -4338,7 +4344,8 @@
         <v>0.0475</v>
       </c>
       <c r="C6" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B6</f>
+        <v>0.00475</v>
       </c>
       <c r="D6" s="18" t="n">
         <v>0.023</v>
@@ -4353,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
@@ -4361,7 +4368,8 @@
         <v>1.0639</v>
       </c>
       <c r="C7" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B7</f>
+        <v>0.10639</v>
       </c>
       <c r="D7" s="18" t="n">
         <v>1.0267</v>
@@ -4376,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -4384,7 +4392,8 @@
         <v>0.0852</v>
       </c>
       <c r="C8" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B8</f>
+        <v>0.00852</v>
       </c>
       <c r="D8" s="18" t="n">
         <v>0.0878</v>
@@ -4399,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
@@ -4407,7 +4416,8 @@
         <v>0.3556</v>
       </c>
       <c r="C9" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B9</f>
+        <v>0.03556</v>
       </c>
       <c r="D9" s="18" t="n">
         <v>0.3102</v>
@@ -4422,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
@@ -4430,7 +4440,8 @@
         <v>0.6231</v>
       </c>
       <c r="C10" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B10</f>
+        <v>0.06231</v>
       </c>
       <c r="D10" s="18" t="n">
         <v>0.6288</v>
@@ -4445,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>52</v>
       </c>
@@ -4453,7 +4464,8 @@
         <v>0.0852</v>
       </c>
       <c r="C11" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B11</f>
+        <v>0.00852</v>
       </c>
       <c r="D11" s="18" t="n">
         <v>0.0878</v>
@@ -4468,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
@@ -4476,7 +4488,8 @@
         <v>0.7613</v>
       </c>
       <c r="C12" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B12</f>
+        <v>0.07613</v>
       </c>
       <c r="D12" s="18" t="n">
         <v>0.7613</v>

--- a/io/input/tutorial_03_methionine_cycle.xlsx
+++ b/io/input/tutorial_03_methionine_cycle.xlsx
@@ -710,7 +710,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:C16"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -805,7 +805,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -853,7 +853,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C12:C16 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C12:C16 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1728,7 +1728,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K35" activeCellId="1" sqref="C12:C16 K35"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2084,7 +2084,7 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C12:C16 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2985,7 +2985,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C12:C16 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3275,7 +3275,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="C12:C16 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3442,7 +3442,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C12:C16 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3606,7 +3606,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C12:C16 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3756,7 +3756,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C12:C16 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3918,7 +3918,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="1" sqref="C12:C16 F20"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4201,7 +4201,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C12:C16"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
